--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value736.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value736.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.29423105030126</v>
+        <v>1.0013667345047</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.717131495475769</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.458489287101082</v>
+        <v>2.134654998779297</v>
       </c>
       <c r="E1">
-        <v>0.9539017258769807</v>
+        <v>1.242484092712402</v>
       </c>
     </row>
   </sheetData>
